--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -491,166 +491,166 @@
 unique_id_no</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘玉珍","unique_id_no":"230301193603028504"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘秀华","unique_id_no":"14042320010106813X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘秀英","unique_id_no":"513321195105069746"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"常洁","unique_id_no":"430181196803159180"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"龚建平","unique_id_no":"130529196410123211"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"汪雪","unique_id_no":"120101198807048108"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"唐伟","unique_id_no":"230705194406112848"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"苏婷婷","unique_id_no":"320281194802229846"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨华","unique_id_no":"23040419750715719X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"熊燕","unique_id_no":"53233119411125392X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"温雪梅","unique_id_no":"512022194005277366"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"佘欣","unique_id_no":"500103194602031463"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘建平","unique_id_no":"65402419730614518X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨霞","unique_id_no":"230502194609080030"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨秀华","unique_id_no":"411601199604035026"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"桑宁","unique_id_no":"130301199110108200"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"吴丽丽","unique_id_no":"431227195612183536"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"郭波","unique_id_no":"230000196307142098"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"张帆","unique_id_no":"61040019500813132X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"戴岩","unique_id_no":"230126197401100445"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"史建军","unique_id_no":"810000197505125419"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"霍云","unique_id_no":"652123193104175806"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"何桂芝","unique_id_no":"540225195708257183"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王坤","unique_id_no":"360122198410270997"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王雪梅","unique_id_no":"230108199711225303"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"李伟","unique_id_no":"130527195912318580"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"文宇","unique_id_no":"42102319500730344X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"崔平","unique_id_no":"330602196212165990"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陈鹏","unique_id_no":"513330198512284216"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"熊雪梅","unique_id_no":"640205198403159613"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘红梅","unique_id_no":"513229198511076289"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"潘小红","unique_id_no":"469029194007285788"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"成刚","unique_id_no":"411326197405231587"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王兰英","unique_id_no":"350624198104064835"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陶玉华","unique_id_no":"610100193707083851"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"郭静","unique_id_no":"211202198607266877"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"韩秀华","unique_id_no":"340621199009259419"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨瑜","unique_id_no":"610581197604080103"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"李桂荣","unique_id_no":"130434198909189118"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"曾秀英","unique_id_no":"422825199408162145"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"许刚","unique_id_no":"610900199011102146"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"甘波","unique_id_no":"330182198110050424"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"易峰","unique_id_no":"36100119741201403X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘玲","unique_id_no":"451481198608245075"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"谭璐","unique_id_no":"450127193210111124"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"田利","unique_id_no":"370786192910089667"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"朱丹丹","unique_id_no":"330522194305135193"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘强","unique_id_no":"52262519720917151X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王博","unique_id_no":"340522196511256982"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨洁","unique_id_no":"34120119390603008X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王丹丹","unique_id_no":"520623193911271040"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"张春梅","unique_id_no":"52262319660507997X"}</t>
+    <t>{"unique_name":"张帆","unique_id_no":"513436197708130955"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"刘丹","unique_id_no":"520382198702262638"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"赵柳","unique_id_no":"510681193503197007"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"路杨","unique_id_no":"120223193210061810"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"罗晶","unique_id_no":"130633198309030749"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"许华","unique_id_no":"370322194106041975"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"郭雷","unique_id_no":"130108194909111401"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"温玉华","unique_id_no":"522628196012274683"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"赵彬","unique_id_no":"451027198107037710"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"曾萍","unique_id_no":"341600198603219297"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"赵东","unique_id_no":"211282197008062060"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李楠","unique_id_no":"350822194109309053"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李欣","unique_id_no":"652200198005186255"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"邝云","unique_id_no":"141123195712286006"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈燕","unique_id_no":"451121198504180091"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张丽丽","unique_id_no":"321003198012185884"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李刚","unique_id_no":"130729193306305549"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"黄柳","unique_id_no":"513325194503282973"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"滕欢","unique_id_no":"130205197203144391"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"谢玉华","unique_id_no":"230300193505048943"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"闻洁","unique_id_no":"62052319410717009X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"谢慧","unique_id_no":"411330198011305327"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"杨敏","unique_id_no":"120221198811271717"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"吴秀兰","unique_id_no":"451324194512240076"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈凯","unique_id_no":"520523196202108185"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李秀兰","unique_id_no":"211382193112066878"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张勇","unique_id_no":"130502192912302019"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张桂芝","unique_id_no":"330281200011037186"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"丁敏","unique_id_no":"411082197108244933"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"阎凤兰","unique_id_no":"421121193507042665"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"罗霞","unique_id_no":"440608198305089774"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李芳","unique_id_no":"321001198603296583"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张凤兰","unique_id_no":"620981198308070160"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"林敏","unique_id_no":"370124194403234206"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"石雪","unique_id_no":"44120219970305517X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"段娟","unique_id_no":"371201198309248601"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"柳刚","unique_id_no":"411501196306222115"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"蒋勇","unique_id_no":"42080019340727304X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张帆","unique_id_no":"32072219670118055X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"何荣","unique_id_no":"341501195003270109"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"萧建","unique_id_no":"500106199709266678"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"郑帅","unique_id_no":"620800195604230707"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"马文","unique_id_no":"130283193911200375"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"王浩","unique_id_no":"230103199205079700"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"黄兵","unique_id_no":"330122192912070298"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"罗燕","unique_id_no":"542600194410291356"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"刘波","unique_id_no":"371581194011279157"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"苏桂兰","unique_id_no":"371500196212038860"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"许莹","unique_id_no":"230604197503204244"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"韦淑华","unique_id_no":"610402194608273469"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李婷婷","unique_id_no":"620923194012029642"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"邓雪梅","unique_id_no":"650109194008081768"}</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
         <v>116</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M3" t="s">
         <v>120</v>
@@ -1157,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" t="s">
         <v>121</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
         <v>122</v>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s">
         <v>123</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
         <v>124</v>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s">
         <v>125</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
         <v>126</v>
@@ -1373,7 +1373,7 @@
         <v>116</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
         <v>118</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s">
         <v>128</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s">
         <v>129</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s">
         <v>130</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
         <v>131</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
         <v>132</v>
@@ -1595,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s">
         <v>133</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" t="s">
         <v>134</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" t="s">
         <v>135</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s">
         <v>136</v>
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M20" t="s">
         <v>137</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" t="s">
         <v>138</v>
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s">
         <v>139</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M23" t="s">
         <v>140</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M24" t="s">
         <v>141</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M25" t="s">
         <v>142</v>
@@ -1960,7 +1960,7 @@
         <v>3500</v>
       </c>
       <c r="L26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M26" t="s">
         <v>143</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M27" t="s">
         <v>144</v>
@@ -2030,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="K28">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>117</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
         <v>146</v>
@@ -2103,7 +2103,7 @@
         <v>116</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="L30" t="s">
         <v>118</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M31" t="s">
         <v>148</v>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s">
         <v>149</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M33" t="s">
         <v>150</v>
@@ -2252,7 +2252,7 @@
         <v>116</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
         <v>117</v>
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M35" t="s">
         <v>152</v>
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M36" t="s">
         <v>153</v>
@@ -2366,7 +2366,7 @@
         <v>116</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" t="s">
         <v>117</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M38" t="s">
         <v>155</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M39" t="s">
         <v>156</v>
@@ -2480,7 +2480,7 @@
         <v>116</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
         <v>117</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M41" t="s">
         <v>158</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M42" t="s">
         <v>159</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M43" t="s">
         <v>160</v>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M44" t="s">
         <v>161</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M45" t="s">
         <v>162</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -2746,7 +2746,7 @@
         <v>116</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>117</v>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M48" t="s">
         <v>165</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M49" t="s">
         <v>166</v>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M50" t="s">
         <v>167</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M51" t="s">
         <v>168</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M52" t="s">
         <v>169</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M53" t="s">
         <v>170</v>

--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -454,8 +454,8 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>info_court_administrative_violation.court_id;
-info_court_administrative_violation.case_no[0]="";
-info_court_administrative_violation.case_no[1]=""</t>
+info_court_administrative_violation.case_no[0]=;
+info_court_administrative_violation.case_no[1]=</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"祁超","unique_id_no":"41062219300127585X"}</t>
+          <t>{"unique_name":"冯成","unique_id_no":"321311196206053166"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"毛静","unique_id_no":"61012219720307689X"}</t>
+          <t>{"unique_name":"严欢","unique_id_no":"350800196508202369"}</t>
         </is>
       </c>
     </row>
@@ -560,8 +560,8 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
-info_court_judicative_pape.case_no[0]="";
-info_court_judicative_pape.case_no[1]=""</t>
+info_court_judicative_pape.case_no[0]=;
+info_court_judicative_pape.case_no[1]=</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙东","unique_id_no":"130921195603171646"}</t>
+          <t>{"unique_name":"牧淑华","unique_id_no":"370212196906057909"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"丰兰英","unique_id_no":"43092319581115668X"}</t>
+          <t>{"unique_name":"段华","unique_id_no":"533400199401231379"}</t>
         </is>
       </c>
     </row>
@@ -666,8 +666,8 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
-info_court_trial_process.case_no[0]="";
-info_court_trial_process.case_no[1]=""</t>
+info_court_trial_process.case_no[0]=;
+info_court_trial_process.case_no[1]=</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"杭平","unique_id_no":"420602195808114315"}</t>
+          <t>{"unique_name":"查桂兰","unique_id_no":"340223193003168624"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"方桂芝","unique_id_no":"440605197210194324"}</t>
+          <t>{"unique_name":"满秀英","unique_id_no":"14040019440329827X"}</t>
         </is>
       </c>
     </row>
@@ -772,8 +772,8 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>info_court_taxable_abnormal_user.court_id;
-info_court_taxable_abnormal_user.objection[0]="";
-info_court_taxable_abnormal_user.objection[1]=""</t>
+info_court_taxable_abnormal_user.objection[0]=;
+info_court_taxable_abnormal_user.objection[1]=</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"索秀梅","unique_id_no":"421201196005113754"}</t>
+          <t>{"unique_name":"湛波","unique_id_no":"513227198502097878"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"阚利","unique_id_no":"130703194803186414"}</t>
+          <t>{"unique_name":"空红梅","unique_id_no":"130108198808240798"}</t>
         </is>
       </c>
     </row>
@@ -878,8 +878,8 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>info_court_arrearage.court_id;
-info_court_arrearage.objection[0]="";
-info_court_arrearage.objection[1]=""</t>
+info_court_arrearage.objection[0]=;
+info_court_arrearage.objection[1]=</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"弓帆","unique_id_no":"652122199104037973"}</t>
+          <t>{"unique_name":"邰淑珍","unique_id_no":"431223198505238579"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"邴秀兰","unique_id_no":"44010419840422561X"}</t>
+          <t>{"unique_name":"方婷婷","unique_id_no":"532529196204195472"}</t>
         </is>
       </c>
     </row>
@@ -984,8 +984,8 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>info_court_tax_arrears.court_id;
-info_court_tax_arrears.objection[0]="";
-info_court_tax_arrears.objection[1]=""</t>
+info_court_tax_arrears.objection[0]=;
+info_court_tax_arrears.objection[1]=</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"严琳","unique_id_no":"110115199506199368"}</t>
+          <t>{"unique_name":"解建平","unique_id_no":"321181199505220384"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"门桂芳","unique_id_no":"410500195705030127"}</t>
+          <t>{"unique_name":"丘玲","unique_id_no":"410401197908179298"}</t>
         </is>
       </c>
     </row>
@@ -1090,8 +1090,8 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>info_court_deadbeat.court_id;
-info_court_deadbeat.objection[0]="";
-info_court_deadbeat.objection[1]=""</t>
+info_court_deadbeat.objection[0]=;
+info_court_deadbeat.objection[1]=</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"纪雪梅","unique_id_no":"35020319730701088X"}</t>
+          <t>{"unique_name":"都帅","unique_id_no":"431025196105313819"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"范峰","unique_id_no":"44051119370304634X"}</t>
+          <t>{"unique_name":"佴林","unique_id_no":"330900194004055441"}</t>
         </is>
       </c>
     </row>
@@ -1196,8 +1196,8 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>info_court_limited_entry_exit.court_id;
-info_court_limited_entry_exit.objection[0]="";
-info_court_limited_entry_exit.objection[1]=""</t>
+info_court_limited_entry_exit.objection[0]=;
+info_court_limited_entry_exit.objection[1]=</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"弘桂荣","unique_id_no":"320582193212188149"}</t>
+          <t>{"unique_name":"宓雪梅","unique_id_no":"441400193107209145"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙林","unique_id_no":"321081195301077754"}</t>
+          <t>{"unique_name":"晏桂芳","unique_id_no":"620525199002172895"}</t>
         </is>
       </c>
     </row>
@@ -1302,8 +1302,8 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>info_court_limit_hignspending.court_id;
-info_court_limit_hignspending.objection[0]="";
-info_court_limit_hignspending.objection[1]=""</t>
+info_court_limit_hignspending.objection[0]=;
+info_court_limit_hignspending.objection[1]=</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"鄢小红","unique_id_no":"610424194709016646"}</t>
+          <t>{"unique_name":"伏杨","unique_id_no":"23071019730901647X"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"茅红","unique_id_no":"141182193012126475"}</t>
+          <t>{"unique_name":"宿斌","unique_id_no":"610401197404170078"}</t>
         </is>
       </c>
     </row>
@@ -1408,8 +1408,8 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>info_court_excute_public.court_id;
-info_court_excute_public.objection[0]="";
-info_court_excute_public.objection[1]=""</t>
+info_court_excute_public.objection[0]=;
+info_court_excute_public.objection[1]=</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"高欣","unique_id_no":"140221199601013339"}</t>
+          <t>{"unique_name":"宇丽丽","unique_id_no":"652928196108110056"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"雷颖","unique_id_no":"410781197810270323"}</t>
+          <t>{"unique_name":"申华","unique_id_no":"421001193810276113"}</t>
         </is>
       </c>
     </row>
@@ -1514,8 +1514,8 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>info_court_criminal_suspect.court_id;
-info_court_criminal_suspect.objection[0]="";
-info_court_criminal_suspect.objection[1]=""</t>
+info_court_criminal_suspect.objection[0]=;
+info_court_criminal_suspect.objection[1]=</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"卞帅","unique_id_no":"530802194509300857"}</t>
+          <t>{"unique_name":"米春梅","unique_id_no":"510000193305134952"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"车淑兰","unique_id_no":"652222193706147617"}</t>
+          <t>{"unique_name":"景淑英","unique_id_no":"361100199104235672"}</t>
         </is>
       </c>
     </row>
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"广娜","unique_id_no":"511528197907083809"}</t>
+          <t>{"unique_name":"骆浩","unique_id_no":"13080119580403388X"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"卓兵","unique_id_no":"610927194502069237"}</t>
+          <t>{"unique_name":"朱龙","unique_id_no":"53252719290818552X"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"谭玉","unique_id_no":"532622193707164878"}</t>
+          <t>{"unique_name":"巢桂兰","unique_id_no":"130428195908096461"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"狐璐","unique_id_no":"500109199612057078"}</t>
+          <t>{"unique_name":"后淑兰","unique_id_no":"520522199107090797"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"蔺娟","unique_id_no":"44122419911107616X"}</t>
+          <t>{"unique_name":"邬伟","unique_id_no":"131082195908209339"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"尚莉","unique_id_no":"522635194601315396"}</t>
+          <t>{"unique_name":"皇兵","unique_id_no":"511827196806166221"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"邬丹丹","unique_id_no":"350821193805104181"}</t>
+          <t>{"unique_name":"笪丽","unique_id_no":"231201194209118704"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"景桂英","unique_id_no":"441301196302226746"}</t>
+          <t>{"unique_name":"白玉梅","unique_id_no":"411023196701182222"}</t>
         </is>
       </c>
     </row>
@@ -2069,8 +2069,8 @@
       <c r="G32" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
-info_court_judicative_pape.legal_status[0]="";
-info_court_judicative_pape.legal_status[1]=""</t>
+info_court_judicative_pape.legal_status[0]=;
+info_court_judicative_pape.legal_status[1]=</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2086,16 +2086,16 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"干楠","unique_id_no":"511903199112026652"}</t>
+          <t>{"unique_name":"郜斌","unique_id_no":"450702197003133551"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"离莉","unique_id_no":"510302198509115755"}</t>
+          <t>{"unique_name":"戴晶","unique_id_no":"371000195810290570"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"史荣","unique_id_no":"230712193905105609"}</t>
+          <t>{"unique_name":"赏想","unique_id_no":"130682195301051100"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"壤洁","unique_id_no":"220882197510020396"}</t>
+          <t>{"unique_name":"孙婷","unique_id_no":"420301196705282799"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"跋琳","unique_id_no":"450330198303192439"}</t>
+          <t>{"unique_name":"商丽丽","unique_id_no":"451424196907281088"}</t>
         </is>
       </c>
     </row>
@@ -2358,8 +2358,8 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
-info_court_trial_process.legal_status[0]="";
-info_court_trial_process.legal_status[1]=""</t>
+info_court_trial_process.legal_status[0]=;
+info_court_trial_process.legal_status[1]=</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2375,16 +2375,16 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"官桂花","unique_id_no":"522627193210097358"}</t>
+          <t>{"unique_name":"柯雪梅","unique_id_no":"370304193906058954"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"龚淑珍","unique_id_no":"371001194303092803"}</t>
+          <t>{"unique_name":"容勇","unique_id_no":"610522195304159902"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"申雪梅","unique_id_no":"350303199804292448"}</t>
+          <t>{"unique_name":"郁建国","unique_id_no":"52010219981014143X"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"郜静","unique_id_no":"411323197110189028"}</t>
+          <t>{"unique_name":"孙飞","unique_id_no":"411729193002276679"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"逯丹","unique_id_no":"130400197809135907"}</t>
+          <t>{"unique_name":"宇桂香","unique_id_no":"110115194303252306"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"鱼慧","unique_id_no":"510403196408201155"}</t>
+          <t>{"unique_name":"充博","unique_id_no":"620104195008070804"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"魏建华","unique_id_no":"530900199111110426"}</t>
+          <t>{"unique_name":"谷艳","unique_id_no":"450323194801217617"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"毛桂芝","unique_id_no":"530623196510010494"}</t>
+          <t>{"unique_name":"武东","unique_id_no":"140181199508265129"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"游英","unique_id_no":"520422200107058279"}</t>
+          <t>{"unique_name":"司丽娟","unique_id_no":"410600196507107453"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"魏军","unique_id_no":"220882195102257512"}</t>
+          <t>{"unique_name":"舌建平","unique_id_no":"231182198211061330"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"竺利","unique_id_no":"52050019410802490X"}</t>
+          <t>{"unique_name":"蓬兰英","unique_id_no":"440801195504101046"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"娄宁","unique_id_no":"140922199505028578"}</t>
+          <t>{"unique_name":"吉红梅","unique_id_no":"130108194003179223"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"乜荣","unique_id_no":"420684200001248062"}</t>
+          <t>{"unique_name":"缪小红","unique_id_no":"430624198903246096"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"海华","unique_id_no":"350783195803207470"}</t>
+          <t>{"unique_name":"简荣","unique_id_no":"230523193903093761"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"殳瑜","unique_id_no":"130523200008238257"}</t>
+          <t>{"unique_name":"曾秀梅","unique_id_no":"430181196405247783"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"人阳","unique_id_no":"35080019781004671X"}</t>
+          <t>{"unique_name":"奚秀华","unique_id_no":"610900196411202441"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"濮宇","unique_id_no":"530122197512186099"}</t>
+          <t>{"unique_name":"窦秀云","unique_id_no":"420703197210115234"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"冯成","unique_id_no":"321311196206053166"}</t>
+          <t>{"unique_name":"阎琳","unique_id_no":"21052219740710460X"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"严欢","unique_id_no":"350800196508202369"}</t>
+          <t>{"unique_name":"竺华","unique_id_no":"150207196409064612"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"牧淑华","unique_id_no":"370212196906057909"}</t>
+          <t>{"unique_name":"谈利","unique_id_no":"222424194311304890"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"段华","unique_id_no":"533400199401231379"}</t>
+          <t>{"unique_name":"余静","unique_id_no":"321003196608039336"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"查桂兰","unique_id_no":"340223193003168624"}</t>
+          <t>{"unique_name":"孙玉英","unique_id_no":"340881197801252008"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"满秀英","unique_id_no":"14040019440329827X"}</t>
+          <t>{"unique_name":"涂浩","unique_id_no":"371521193308266073"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"湛波","unique_id_no":"513227198502097878"}</t>
+          <t>{"unique_name":"屠楠","unique_id_no":"231222196212103213"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"空红梅","unique_id_no":"130108198808240798"}</t>
+          <t>{"unique_name":"董颖","unique_id_no":"141000196812016147"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"邰淑珍","unique_id_no":"431223198505238579"}</t>
+          <t>{"unique_name":"单丽娟","unique_id_no":"150221198808154144"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"方婷婷","unique_id_no":"532529196204195472"}</t>
+          <t>{"unique_name":"和荣","unique_id_no":"130401197506122021"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"解建平","unique_id_no":"321181199505220384"}</t>
+          <t>{"unique_name":"单建平","unique_id_no":"340223197707268381"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"丘玲","unique_id_no":"410401197908179298"}</t>
+          <t>{"unique_name":"窦桂芝","unique_id_no":"320282195903268853"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"都帅","unique_id_no":"431025196105313819"}</t>
+          <t>{"unique_name":"吉凤英","unique_id_no":"420200198007065022"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"佴林","unique_id_no":"330900194004055441"}</t>
+          <t>{"unique_name":"尉帆","unique_id_no":"370830195511165922"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"宓雪梅","unique_id_no":"441400193107209145"}</t>
+          <t>{"unique_name":"迟明","unique_id_no":"370124194009217387"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"晏桂芳","unique_id_no":"620525199002172895"}</t>
+          <t>{"unique_name":"东建华","unique_id_no":"542500195208296355"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"伏杨","unique_id_no":"23071019730901647X"}</t>
+          <t>{"unique_name":"廖荣","unique_id_no":"140501199207252500"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"宿斌","unique_id_no":"610401197404170078"}</t>
+          <t>{"unique_name":"鄢柳","unique_id_no":"130638195902221149"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"宇丽丽","unique_id_no":"652928196108110056"}</t>
+          <t>{"unique_name":"牟佳","unique_id_no":"341721197001127312"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"申华","unique_id_no":"421001193810276113"}</t>
+          <t>{"unique_name":"郑刚","unique_id_no":"410825200106103790"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"米春梅","unique_id_no":"510000193305134952"}</t>
+          <t>{"unique_name":"耿飞","unique_id_no":"330109195108042387"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"景淑英","unique_id_no":"361100199104235672"}</t>
+          <t>{"unique_name":"益婷婷","unique_id_no":"520424193503108565"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"骆浩","unique_id_no":"13080119580403388X"}</t>
+          <t>{"unique_name":"曾欣","unique_id_no":"411281194101239454"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"朱龙","unique_id_no":"53252719290818552X"}</t>
+          <t>{"unique_name":"董玉兰","unique_id_no":"469027198106106904"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"巢桂兰","unique_id_no":"130428195908096461"}</t>
+          <t>{"unique_name":"益秀英","unique_id_no":"620921195701095479"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"后淑兰","unique_id_no":"520522199107090797"}</t>
+          <t>{"unique_name":"官丹","unique_id_no":"511521199403185814"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"邬伟","unique_id_no":"131082195908209339"}</t>
+          <t>{"unique_name":"上桂兰","unique_id_no":"420684196812132689"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"皇兵","unique_id_no":"511827196806166221"}</t>
+          <t>{"unique_name":"翟冬梅","unique_id_no":"120112197905133407"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"笪丽","unique_id_no":"231201194209118704"}</t>
+          <t>{"unique_name":"曾龙","unique_id_no":"330825198811048555"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"白玉梅","unique_id_no":"411023196701182222"}</t>
+          <t>{"unique_name":"寇玉华","unique_id_no":"340803197103187924"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"郜斌","unique_id_no":"450702197003133551"}</t>
+          <t>{"unique_name":"陆丽","unique_id_no":"140430194908279398"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"戴晶","unique_id_no":"371000195810290570"}</t>
+          <t>{"unique_name":"容倩","unique_id_no":"140303199112218459"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"赏想","unique_id_no":"130682195301051100"}</t>
+          <t>{"unique_name":"慕玉珍","unique_id_no":"152922198210167668"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙婷","unique_id_no":"420301196705282799"}</t>
+          <t>{"unique_name":"柯萍","unique_id_no":"130183196211274291"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"商丽丽","unique_id_no":"451424196907281088"}</t>
+          <t>{"unique_name":"赵瑞","unique_id_no":"130600198802092225"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"柯雪梅","unique_id_no":"370304193906058954"}</t>
+          <t>{"unique_name":"厍小红","unique_id_no":"410421199803316756"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"容勇","unique_id_no":"610522195304159902"}</t>
+          <t>{"unique_name":"魏莹","unique_id_no":"210124196305054564"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"郁建国","unique_id_no":"52010219981014143X"}</t>
+          <t>{"unique_name":"申丹丹","unique_id_no":"141100195205053836"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙飞","unique_id_no":"411729193002276679"}</t>
+          <t>{"unique_name":"牛娜","unique_id_no":"632624193503318122"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"宇桂香","unique_id_no":"110115194303252306"}</t>
+          <t>{"unique_name":"熊宇","unique_id_no":"13058119650225613X"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"充博","unique_id_no":"620104195008070804"}</t>
+          <t>{"unique_name":"蔡俊","unique_id_no":"450102193501265759"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"谷艳","unique_id_no":"450323194801217617"}</t>
+          <t>{"unique_name":"宗芳","unique_id_no":"411121200106206703"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"武东","unique_id_no":"140181199508265129"}</t>
+          <t>{"unique_name":"冶红梅","unique_id_no":"140701194609204630"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"司丽娟","unique_id_no":"410600196507107453"}</t>
+          <t>{"unique_name":"巫瑞","unique_id_no":"371726197208245188"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"舌建平","unique_id_no":"231182198211061330"}</t>
+          <t>{"unique_name":"简桂香","unique_id_no":"620521194810042222"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"蓬兰英","unique_id_no":"440801195504101046"}</t>
+          <t>{"unique_name":"卫平","unique_id_no":"410821198009096220"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"吉红梅","unique_id_no":"130108194003179223"}</t>
+          <t>{"unique_name":"咸龙","unique_id_no":"330200193405043043"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"缪小红","unique_id_no":"430624198903246096"}</t>
+          <t>{"unique_name":"黎超","unique_id_no":"150822199512119829"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"简荣","unique_id_no":"230523193903093761"}</t>
+          <t>{"unique_name":"申丽娟","unique_id_no":"530721195502016376"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"曾秀梅","unique_id_no":"430181196405247783"}</t>
+          <t>{"unique_name":"松秀兰","unique_id_no":"510822195001051251"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"奚秀华","unique_id_no":"610900196411202441"}</t>
+          <t>{"unique_name":"岑玉","unique_id_no":"410328195107042502"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"窦秀云","unique_id_no":"420703197210115234"}</t>
+          <t>{"unique_name":"西红","unique_id_no":"130434197307076285"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"阎琳","unique_id_no":"21052219740710460X"}</t>
+          <t>{"unique_name":"弘丹","unique_id_no":"410225197702199613"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"竺华","unique_id_no":"150207196409064612"}</t>
+          <t>{"unique_name":"羊彬","unique_id_no":"222424197201248780"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"谈利","unique_id_no":"222424194311304890"}</t>
+          <t>{"unique_name":"林玉珍","unique_id_no":"640425195103119620"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"余静","unique_id_no":"321003196608039336"}</t>
+          <t>{"unique_name":"窦艳","unique_id_no":"411025194304160699"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙玉英","unique_id_no":"340881197801252008"}</t>
+          <t>{"unique_name":"空秀华","unique_id_no":"520421198511140809"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"涂浩","unique_id_no":"371521193308266073"}</t>
+          <t>{"unique_name":"梁秀芳","unique_id_no":"371428198805116182"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"屠楠","unique_id_no":"231222196212103213"}</t>
+          <t>{"unique_name":"孔志强","unique_id_no":"533124196510114391"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"董颖","unique_id_no":"141000196812016147"}</t>
+          <t>{"unique_name":"卞红","unique_id_no":"610104198002094372"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"单丽娟","unique_id_no":"150221198808154144"}</t>
+          <t>{"unique_name":"于建华","unique_id_no":"321111196706153808"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"和荣","unique_id_no":"130401197506122021"}</t>
+          <t>{"unique_name":"申琳","unique_id_no":"520123198910269745"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"单建平","unique_id_no":"340223197707268381"}</t>
+          <t>{"unique_name":"司博","unique_id_no":"360428193007315739"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"窦桂芝","unique_id_no":"320282195903268853"}</t>
+          <t>{"unique_name":"充桂荣","unique_id_no":"220302193609233343"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"吉凤英","unique_id_no":"420200198007065022"}</t>
+          <t>{"unique_name":"蒲婷","unique_id_no":"620105198508121145"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"尉帆","unique_id_no":"370830195511165922"}</t>
+          <t>{"unique_name":"雷帅","unique_id_no":"640381198412114849"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"迟明","unique_id_no":"370124194009217387"}</t>
+          <t>{"unique_name":"顾淑珍","unique_id_no":"340603193909050063"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"东建华","unique_id_no":"542500195208296355"}</t>
+          <t>{"unique_name":"高伟","unique_id_no":"330903197010072523"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"廖荣","unique_id_no":"140501199207252500"}</t>
+          <t>{"unique_name":"申桂花","unique_id_no":"430181198403241803"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"鄢柳","unique_id_no":"130638195902221149"}</t>
+          <t>{"unique_name":"左淑英","unique_id_no":"371723199005254535"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"牟佳","unique_id_no":"341721197001127312"}</t>
+          <t>{"unique_name":"庞彬","unique_id_no":"621001195906070298"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"郑刚","unique_id_no":"410825200106103790"}</t>
+          <t>{"unique_name":"虞淑华","unique_id_no":"140402199804152162"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"耿飞","unique_id_no":"330109195108042387"}</t>
+          <t>{"unique_name":"訾璐","unique_id_no":"331181194707256464"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"益婷婷","unique_id_no":"520424193503108565"}</t>
+          <t>{"unique_name":"经刚","unique_id_no":"469005198102228746"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"曾欣","unique_id_no":"411281194101239454"}</t>
+          <t>{"unique_name":"有斌","unique_id_no":"650203199509255447"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"董玉兰","unique_id_no":"469027198106106904"}</t>
+          <t>{"unique_name":"杜宁","unique_id_no":"371722198606265124"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"益秀英","unique_id_no":"620921195701095479"}</t>
+          <t>{"unique_name":"迟玉华","unique_id_no":"513434197604141403"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"官丹","unique_id_no":"511521199403185814"}</t>
+          <t>{"unique_name":"钱慧","unique_id_no":"431227193611037837"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"上桂兰","unique_id_no":"420684196812132689"}</t>
+          <t>{"unique_name":"别飞","unique_id_no":"210304199807186427"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"翟冬梅","unique_id_no":"120112197905133407"}</t>
+          <t>{"unique_name":"通丽华","unique_id_no":"65232819331019527X"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"曾龙","unique_id_no":"330825198811048555"}</t>
+          <t>{"unique_name":"巢桂珍","unique_id_no":"230307195511209786"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"寇玉华","unique_id_no":"340803197103187924"}</t>
+          <t>{"unique_name":"门峰","unique_id_no":"210104196812138863"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"陆丽","unique_id_no":"140430194908279398"}</t>
+          <t>{"unique_name":"邢瑞","unique_id_no":"500111194407240278"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"容倩","unique_id_no":"140303199112218459"}</t>
+          <t>{"unique_name":"甄林","unique_id_no":"340122199403318797"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"慕玉珍","unique_id_no":"152922198210167668"}</t>
+          <t>{"unique_name":"秦丹","unique_id_no":"370302196703287790"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"柯萍","unique_id_no":"130183196211274291"}</t>
+          <t>{"unique_name":"冷淑珍","unique_id_no":"410700197207248262"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"赵瑞","unique_id_no":"130600198802092225"}</t>
+          <t>{"unique_name":"欧强","unique_id_no":"410782193403183773"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"厍小红","unique_id_no":"410421199803316756"}</t>
+          <t>{"unique_name":"李敏","unique_id_no":"610326196306166486"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"魏莹","unique_id_no":"210124196305054564"}</t>
+          <t>{"unique_name":"通丽华","unique_id_no":"350128200102134973"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"申丹丹","unique_id_no":"141100195205053836"}</t>
+          <t>{"unique_name":"伊莉","unique_id_no":"650101193302250715"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"牛娜","unique_id_no":"632624193503318122"}</t>
+          <t>{"unique_name":"秦磊","unique_id_no":"620301198309202888"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"熊宇","unique_id_no":"13058119650225613X"}</t>
+          <t>{"unique_name":"童敏","unique_id_no":"430623194511190922"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"蔡俊","unique_id_no":"450102193501265759"}</t>
+          <t>{"unique_name":"须伟","unique_id_no":"653225194811229651"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"宗芳","unique_id_no":"411121200106206703"}</t>
+          <t>{"unique_name":"禄志强","unique_id_no":"630101194106034354"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"冶红梅","unique_id_no":"140701194609204630"}</t>
+          <t>{"unique_name":"西淑英","unique_id_no":"340222197910219386"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"巫瑞","unique_id_no":"371726197208245188"}</t>
+          <t>{"unique_name":"蓬秀梅","unique_id_no":"130223195206196318"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"简桂香","unique_id_no":"620521194810042222"}</t>
+          <t>{"unique_name":"阳淑珍","unique_id_no":"620902196712168616"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"卫平","unique_id_no":"410821198009096220"}</t>
+          <t>{"unique_name":"窦梅","unique_id_no":"530822193304018760"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"咸龙","unique_id_no":"330200193405043043"}</t>
+          <t>{"unique_name":"慕萍","unique_id_no":"640423197110245752"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"黎超","unique_id_no":"150822199512119829"}</t>
+          <t>{"unique_name":"方秀荣","unique_id_no":"430225199803317378"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"申丽娟","unique_id_no":"530721195502016376"}</t>
+          <t>{"unique_name":"吉健","unique_id_no":"220623197408299393"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"松秀兰","unique_id_no":"510822195001051251"}</t>
+          <t>{"unique_name":"禄斌","unique_id_no":"350681198408027627"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"岑玉","unique_id_no":"410328195107042502"}</t>
+          <t>{"unique_name":"益丽","unique_id_no":"330600196404028672"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"西红","unique_id_no":"130434197307076285"}</t>
+          <t>{"unique_name":"梁凤兰","unique_id_no":"150202195706061251"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"路凤英","unique_id_no":"510723200107044003"}</t>
+          <t>{"unique_name":"谭浩","unique_id_no":"220403197208131354"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"石伟","unique_id_no":"320302195304252220"}</t>
+          <t>{"unique_name":"伊伟","unique_id_no":"653226198702227176"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"闻俊","unique_id_no":"62302519600124916X"}</t>
+          <t>{"unique_name":"曹冬梅","unique_id_no":"340303195603041730"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"厍霞","unique_id_no":"331003198211150651"}</t>
+          <t>{"unique_name":"蒋东","unique_id_no":"630105193909044493"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"鄢红","unique_id_no":"340302195911253974"}</t>
+          <t>{"unique_name":"邢想","unique_id_no":"230828195608229707"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"慕磊","unique_id_no":"231101196901157228"}</t>
+          <t>{"unique_name":"尚梅","unique_id_no":"520302198110248822"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"那刚","unique_id_no":"430407200011080855"}</t>
+          <t>{"unique_name":"上健","unique_id_no":"320405197108120726"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"甘颖","unique_id_no":"371103197101319573"}</t>
+          <t>{"unique_name":"帅凤兰","unique_id_no":"360881195411181464"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"武荣","unique_id_no":"230805195403204245"}</t>
+          <t>{"unique_name":"郁燕","unique_id_no":"140123196303228108"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"袁建平","unique_id_no":"321204195410117063"}</t>
+          <t>{"unique_name":"雕畅","unique_id_no":"410728194808112259"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"盖丽娟","unique_id_no":"320400193211058086"}</t>
+          <t>{"unique_name":"宦丹","unique_id_no":"530128193403246697"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"班婷婷","unique_id_no":"542124196509017405"}</t>
+          <t>{"unique_name":"暨涛","unique_id_no":"450224193612189246"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"竺亮","unique_id_no":"230203193710303994"}</t>
+          <t>{"unique_name":"袁秀英","unique_id_no":"632300198010158496"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"贡玉梅","unique_id_no":"330503196505197970"}</t>
+          <t>{"unique_name":"经淑珍","unique_id_no":"410221197101206245"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"马英","unique_id_no":"140501198004053355"}</t>
+          <t>{"unique_name":"皇淑英","unique_id_no":"611025199004197182"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"舌兰英","unique_id_no":"542429195509052976"}</t>
+          <t>{"unique_name":"钟春梅","unique_id_no":"110113197703158184"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"双淑华","unique_id_no":"510722193707301406"}</t>
+          <t>{"unique_name":"庞霞","unique_id_no":"63252419630211165X"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"祝雷","unique_id_no":"65422319780222771X"}</t>
+          <t>{"unique_name":"任娜","unique_id_no":"411525196104040111"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"任兰英","unique_id_no":"220302195502282427"}</t>
+          <t>{"unique_name":"父超","unique_id_no":"440784200003271919"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"阎荣","unique_id_no":"370832199505300236"}</t>
+          <t>{"unique_name":"帅红霞","unique_id_no":"510522194601258466"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"孔勇","unique_id_no":"610800197912080656"}</t>
+          <t>{"unique_name":"庚霞","unique_id_no":"610630197108196188"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"贺玉","unique_id_no":"445302198601211295"}</t>
+          <t>{"unique_name":"支淑兰","unique_id_no":"15010119871205923X"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"靳龙","unique_id_no":"370783195010042497"}</t>
+          <t>{"unique_name":"高雪","unique_id_no":"330411199605047820"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"席雪梅","unique_id_no":"150122199304116596"}</t>
+          <t>{"unique_name":"薛桂荣","unique_id_no":"652922198908265890"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"劳娟","unique_id_no":"141101196810160673"}</t>
+          <t>{"unique_name":"徒磊","unique_id_no":"513400197207277450"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"文丽丽","unique_id_no":"430124193908161921"}</t>
+          <t>{"unique_name":"从坤","unique_id_no":"320830197705015893"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"公宁","unique_id_no":"340221198111253092"}</t>
+          <t>{"unique_name":"冯刚","unique_id_no":"469005194001162882"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"耿倩","unique_id_no":"530111198608203231"}</t>
+          <t>{"unique_name":"仉玉英","unique_id_no":"320203197809206609"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"巫桂英","unique_id_no":"52262919320512844X"}</t>
+          <t>{"unique_name":"轩桂英","unique_id_no":"230421195005230286"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"耿成","unique_id_no":"330726199108232866"}</t>
+          <t>{"unique_name":"楚红霞","unique_id_no":"360881197106040111"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"董雪梅","unique_id_no":"15012419620403885X"}</t>
+          <t>{"unique_name":"郦红","unique_id_no":"411722194503192596"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"咸瑞","unique_id_no":"320311194512287710"}</t>
+          <t>{"unique_name":"咸畅","unique_id_no":"430521199909306061"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"欧斌","unique_id_no":"500100198709032668"}</t>
+          <t>{"unique_name":"武桂香","unique_id_no":"430821193905309379"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"丘桂花","unique_id_no":"652301199409275058"}</t>
+          <t>{"unique_name":"扶敏","unique_id_no":"445101198504282748"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"门红","unique_id_no":"330381199205041896"}</t>
+          <t>{"unique_name":"柳岩","unique_id_no":"451028195710069525"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"彭兰英","unique_id_no":"530129196410096412"}</t>
+          <t>{"unique_name":"沃英","unique_id_no":"340122197908145650"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"谢龙","unique_id_no":"341823200102230987"}</t>
+          <t>{"unique_name":"连淑兰","unique_id_no":"530000193109030586"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"郜秀珍","unique_id_no":"320305197608274398"}</t>
+          <t>{"unique_name":"印瑜","unique_id_no":"230123196401031802"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"郎瑞","unique_id_no":"130638193502226224"}</t>
+          <t>{"unique_name":"终秀兰","unique_id_no":"431123193203094225"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"樊伟","unique_id_no":"450226193502259955"}</t>
+          <t>{"unique_name":"闵鹏","unique_id_no":"520623195912283093"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"侯秀梅","unique_id_no":"321012198904277190"}</t>
+          <t>{"unique_name":"沈鹏","unique_id_no":"320501194804304576"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"巢超","unique_id_no":"445200194308254759"}</t>
+          <t>{"unique_name":"何秀云","unique_id_no":"330109193802212826"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"班云","unique_id_no":"430521198803198213"}</t>
+          <t>{"unique_name":"关楠","unique_id_no":"411281200005147195"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"驷旭","unique_id_no":"110106199011263659"}</t>
+          <t>{"unique_name":"周娜","unique_id_no":"371625198905019824"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"轩丹丹","unique_id_no":"610927194009236708"}</t>
+          <t>{"unique_name":"简健","unique_id_no":"640200196507221257"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"娄波","unique_id_no":"150522197107100264"}</t>
+          <t>{"unique_name":"孙建平","unique_id_no":"632801195404240193"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"常淑兰","unique_id_no":"130526195502129481"}</t>
+          <t>{"unique_name":"荣淑华","unique_id_no":"440705198312182244"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"满岩","unique_id_no":"130202193301169544"}</t>
+          <t>{"unique_name":"令雪梅","unique_id_no":"230606195002173244"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"余娟","unique_id_no":"211201197511148445"}</t>
+          <t>{"unique_name":"孟婷婷","unique_id_no":"340103194703317575"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"嵇伟","unique_id_no":"451024196209253854"}</t>
+          <t>{"unique_name":"封桂荣","unique_id_no":"130521194904074130"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"尤利","unique_id_no":"620821193002158990"}</t>
+          <t>{"unique_name":"涂莹","unique_id_no":"21068219451002557X"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"夹敏","unique_id_no":"500103199702113688"}</t>
+          <t>{"unique_name":"迟想","unique_id_no":"451201193412024160"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"谭浩","unique_id_no":"220403197208131354"}</t>
+          <t>{"unique_name":"东倩","unique_id_no":"440303199901127251"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"伊伟","unique_id_no":"653226198702227176"}</t>
+          <t>{"unique_name":"戈帅","unique_id_no":"513223196705215200"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"曹冬梅","unique_id_no":"340303195603041730"}</t>
+          <t>{"unique_name":"苍涛","unique_id_no":"140109193511291899"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"蒋东","unique_id_no":"630105193909044493"}</t>
+          <t>{"unique_name":"鱼宁","unique_id_no":"513431193503076596"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"邢想","unique_id_no":"230828195608229707"}</t>
+          <t>{"unique_name":"宁小红","unique_id_no":"360703193604240025"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"尚梅","unique_id_no":"520302198110248822"}</t>
+          <t>{"unique_name":"经晨","unique_id_no":"450105197303250596"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"上健","unique_id_no":"320405197108120726"}</t>
+          <t>{"unique_name":"贲海燕","unique_id_no":"230500193708011156"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"帅凤兰","unique_id_no":"360881195411181464"}</t>
+          <t>{"unique_name":"荀淑华","unique_id_no":"321203194011011447"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"郁燕","unique_id_no":"140123196303228108"}</t>
+          <t>{"unique_name":"雷东","unique_id_no":"141034193305239274"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"雕畅","unique_id_no":"410728194808112259"}</t>
+          <t>{"unique_name":"宰飞","unique_id_no":"411081195311194200"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"宦丹","unique_id_no":"530128193403246697"}</t>
+          <t>{"unique_name":"西霞","unique_id_no":"14032119611125537X"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"暨涛","unique_id_no":"450224193612189246"}</t>
+          <t>{"unique_name":"驷晨","unique_id_no":"441900193409104995"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"袁秀英","unique_id_no":"632300198010158496"}</t>
+          <t>{"unique_name":"禹淑英","unique_id_no":"510623193006167073"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"经淑珍","unique_id_no":"410221197101206245"}</t>
+          <t>{"unique_name":"怀勇","unique_id_no":"445300195812017429"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"皇淑英","unique_id_no":"611025199004197182"}</t>
+          <t>{"unique_name":"庄峰","unique_id_no":"420112196503091976"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"钟春梅","unique_id_no":"110113197703158184"}</t>
+          <t>{"unique_name":"寇文","unique_id_no":"320113194212268392"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"庞霞","unique_id_no":"63252419630211165X"}</t>
+          <t>{"unique_name":"宁文","unique_id_no":"540224198101151427"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"任娜","unique_id_no":"411525196104040111"}</t>
+          <t>{"unique_name":"盖军","unique_id_no":"130108198311043457"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"父超","unique_id_no":"440784200003271919"}</t>
+          <t>{"unique_name":"归晶","unique_id_no":"130200197706072631"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"帅红霞","unique_id_no":"510522194601258466"}</t>
+          <t>{"unique_name":"梁楠","unique_id_no":"330803198512278467"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"庚霞","unique_id_no":"610630197108196188"}</t>
+          <t>{"unique_name":"郭丽华","unique_id_no":"350100195306209463"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"支淑兰","unique_id_no":"15010119871205923X"}</t>
+          <t>{"unique_name":"逄红梅","unique_id_no":"450123196409163747"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"高雪","unique_id_no":"330411199605047820"}</t>
+          <t>{"unique_name":"郗秀英","unique_id_no":"130623195906108966"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"薛桂荣","unique_id_no":"652922198908265890"}</t>
+          <t>{"unique_name":"酆建华","unique_id_no":"653101193106022400"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"徒磊","unique_id_no":"513400197207277450"}</t>
+          <t>{"unique_name":"岳洁","unique_id_no":"210114194703062111"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"从坤","unique_id_no":"320830197705015893"}</t>
+          <t>{"unique_name":"惠秀芳","unique_id_no":"361022197601278343"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"冯刚","unique_id_no":"469005194001162882"}</t>
+          <t>{"unique_name":"权平","unique_id_no":"62050220010424386X"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"仉玉英","unique_id_no":"320203197809206609"}</t>
+          <t>{"unique_name":"仇勇","unique_id_no":"513334193805063313"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"轩桂英","unique_id_no":"230421195005230286"}</t>
+          <t>{"unique_name":"池波","unique_id_no":"360100195212095727"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"楚红霞","unique_id_no":"360881197106040111"}</t>
+          <t>{"unique_name":"归涛","unique_id_no":"61042819310110987X"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"郦红","unique_id_no":"411722194503192596"}</t>
+          <t>{"unique_name":"燕阳","unique_id_no":"210181195602181378"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"咸畅","unique_id_no":"430521199909306061"}</t>
+          <t>{"unique_name":"堵浩","unique_id_no":"350926195008270546"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"武桂香","unique_id_no":"430821193905309379"}</t>
+          <t>{"unique_name":"空荣","unique_id_no":"130404196308035642"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"扶敏","unique_id_no":"445101198504282748"}</t>
+          <t>{"unique_name":"邬宁","unique_id_no":"371203199312116383"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"柳岩","unique_id_no":"451028195710069525"}</t>
+          <t>{"unique_name":"毕军","unique_id_no":"230422194403059527"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"沃英","unique_id_no":"340122197908145650"}</t>
+          <t>{"unique_name":"查玉兰","unique_id_no":"210401196408191205"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"连淑兰","unique_id_no":"530000193109030586"}</t>
+          <t>{"unique_name":"谭飞","unique_id_no":"150121197711295864"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"印瑜","unique_id_no":"230123196401031802"}</t>
+          <t>{"unique_name":"闵雷","unique_id_no":"469030198803222327"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"终秀兰","unique_id_no":"431123193203094225"}</t>
+          <t>{"unique_name":"卢凯","unique_id_no":"13043419740222803X"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"闵鹏","unique_id_no":"520623195912283093"}</t>
+          <t>{"unique_name":"许玉英","unique_id_no":"320105195703053171"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"沈鹏","unique_id_no":"320501194804304576"}</t>
+          <t>{"unique_name":"方春梅","unique_id_no":"430501200104050505"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"何秀云","unique_id_no":"330109193802212826"}</t>
+          <t>{"unique_name":"申敏","unique_id_no":"652201194209194992"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"关楠","unique_id_no":"411281200005147195"}</t>
+          <t>{"unique_name":"端婷婷","unique_id_no":"120116196909189978"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"周娜","unique_id_no":"371625198905019824"}</t>
+          <t>{"unique_name":"戎玲","unique_id_no":"610921198112086197"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"简健","unique_id_no":"640200196507221257"}</t>
+          <t>{"unique_name":"益帅","unique_id_no":"522635197801251933"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙建平","unique_id_no":"632801195404240193"}</t>
+          <t>{"unique_name":"项丽丽","unique_id_no":"532929199301157617"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"荣淑华","unique_id_no":"440705198312182244"}</t>
+          <t>{"unique_name":"谭峰","unique_id_no":"630121194311053744"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"令雪梅","unique_id_no":"230606195002173244"}</t>
+          <t>{"unique_name":"满平","unique_id_no":"360983193508093646"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"孟婷婷","unique_id_no":"340103194703317575"}</t>
+          <t>{"unique_name":"单想","unique_id_no":"450721197911155616"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"封桂荣","unique_id_no":"130521194904074130"}</t>
+          <t>{"unique_name":"伏晶","unique_id_no":"310107195802014478"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"涂莹","unique_id_no":"21068219451002557X"}</t>
+          <t>{"unique_name":"董想","unique_id_no":"61100119361124259X"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,235 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"迟想","unique_id_no":"451201193412024160"}</t>
+          <t>{"unique_name":"家云","unique_id_no":"310106196012145770"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>115</v>
+      </c>
+      <c r="D54" t="n">
+        <v>16002</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>court_ent_pub_info_max</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>info_court.id</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>info_court_excute_public.court_id;
+info_court_excute_public.execute_content[0]="金额:2500.00";
+info_court_excute_public.execute_content[1]="执行标的金额（万元）:0.4";
+info_court_excute_public.execute_content[2]="执行标的金额（万元）:0.1"</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>court_ent_pub_info_max=4000.00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>{"unique_name":"娄健","unique_id_no":"210113196906026236"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>116</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16002</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>court_ent_judge_max</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>info_court.id</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>info_court_judicative_pape.court_id;
+info_court_judicative_pape.case_amount[0]=2500;
+info_court_judicative_pape.case_amount[1]=2000;
+info_court_judicative_pape.case_amount[2]=3000</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>court_ent_judge_max=3000</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>{"unique_name":"龚芳","unique_id_no":"140830194605274743"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>117</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16002</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>court_ent_tax_arrears_max</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>info_court.id</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>info_court_tax_arrears.court_id;
+info_court_tax_arrears.taxes[0]=1001.05;
+info_court_tax_arrears.taxes[1]=2000;
+info_court_tax_arrears.taxes[2]=2998.95</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>court_ent_tax_arrears_amt_3y=2998.95</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>2998.95</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>{"unique_name":"殳帆","unique_id_no":"150621199504250117"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>118</v>
+      </c>
+      <c r="D57" t="n">
+        <v>16002</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>court_ent_admi_violation_max</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>info_court.id</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>info_court_administrative_violation.court_id;
+info_court_administrative_violation.execution_result[0]="金额:2500.00";
+info_court_administrative_violation.execution_result[1]="执行标的金额（万元）:0.2";
+info_court_administrative_violation.execution_result[2]="罚款3000"</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>court_ent_admi_violation_max=3000.00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>{"unique_name":"程浩","unique_id_no":"370687193808290968"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16002_result.xlsx
+++ b/tests/data/output/一级测试用例-16002_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"东倩","unique_id_no":"440303199901127251"}</t>
+          <t>{"unique_name":"司秀珍","unique_id_no":"451229199402130588"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"戈帅","unique_id_no":"513223196705215200"}</t>
+          <t>{"unique_name":"怀鹏","unique_id_no":"130000195404179599"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"苍涛","unique_id_no":"140109193511291899"}</t>
+          <t>{"unique_name":"滕桂珍","unique_id_no":"220112193202266575"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"鱼宁","unique_id_no":"513431193503076596"}</t>
+          <t>{"unique_name":"鄢凤兰","unique_id_no":"510725196609110035"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"宁小红","unique_id_no":"360703193604240025"}</t>
+          <t>{"unique_name":"戴强","unique_id_no":"410102196912092991"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"经晨","unique_id_no":"450105197303250596"}</t>
+          <t>{"unique_name":"欧晨","unique_id_no":"220282197712209493"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"贲海燕","unique_id_no":"230500193708011156"}</t>
+          <t>{"unique_name":"丘坤","unique_id_no":"610328199606019126"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"荀淑华","unique_id_no":"321203194011011447"}</t>
+          <t>{"unique_name":"蔺建","unique_id_no":"610528193506253613"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"雷东","unique_id_no":"141034193305239274"}</t>
+          <t>{"unique_name":"尉琳","unique_id_no":"632724197612293431"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"宰飞","unique_id_no":"411081195311194200"}</t>
+          <t>{"unique_name":"高燕","unique_id_no":"130431196905019797"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"西霞","unique_id_no":"14032119611125537X"}</t>
+          <t>{"unique_name":"阙海燕","unique_id_no":"361024196303071721"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"驷晨","unique_id_no":"441900193409104995"}</t>
+          <t>{"unique_name":"叔兵","unique_id_no":"411729195405037225"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"禹淑英","unique_id_no":"510623193006167073"}</t>
+          <t>{"unique_name":"西岩","unique_id_no":"419001193606303263"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"怀勇","unique_id_no":"445300195812017429"}</t>
+          <t>{"unique_name":"堵桂珍","unique_id_no":"341802196803221812"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"庄峰","unique_id_no":"420112196503091976"}</t>
+          <t>{"unique_name":"郭丹丹","unique_id_no":"361181196306137928"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"寇文","unique_id_no":"320113194212268392"}</t>
+          <t>{"unique_name":"臧丽","unique_id_no":"532527198405221880"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"宁文","unique_id_no":"540224198101151427"}</t>
+          <t>{"unique_name":"琴杨","unique_id_no":"610723193606052607"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"盖军","unique_id_no":"130108198311043457"}</t>
+          <t>{"unique_name":"翟俊","unique_id_no":"530129197104182464"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"归晶","unique_id_no":"130200197706072631"}</t>
+          <t>{"unique_name":"那秀荣","unique_id_no":"140830198805129434"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"梁楠","unique_id_no":"330803198512278467"}</t>
+          <t>{"unique_name":"翁兰英","unique_id_no":"445321193408015213"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"郭丽华","unique_id_no":"350100195306209463"}</t>
+          <t>{"unique_name":"夔红","unique_id_no":"542232199806203684"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"逄红梅","unique_id_no":"450123196409163747"}</t>
+          <t>{"unique_name":"刁建军","unique_id_no":"654300199909134927"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"郗秀英","unique_id_no":"130623195906108966"}</t>
+          <t>{"unique_name":"容玉梅","unique_id_no":"320482193904026698"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"酆建华","unique_id_no":"653101193106022400"}</t>
+          <t>{"unique_name":"那慧","unique_id_no":"321181195002026186"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"岳洁","unique_id_no":"210114194703062111"}</t>
+          <t>{"unique_name":"左平","unique_id_no":"431127197612101987"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"惠秀芳","unique_id_no":"361022197601278343"}</t>
+          <t>{"unique_name":"屈东","unique_id_no":"533123195604159717"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"权平","unique_id_no":"62050220010424386X"}</t>
+          <t>{"unique_name":"甄飞","unique_id_no":"371521198102259639"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"仇勇","unique_id_no":"513334193805063313"}</t>
+          <t>{"unique_name":"居萍","unique_id_no":"320100199702106477"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"池波","unique_id_no":"360100195212095727"}</t>
+          <t>{"unique_name":"殴洋","unique_id_no":"230301197209076004"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"归涛","unique_id_no":"61042819310110987X"}</t>
+          <t>{"unique_name":"鲁梅","unique_id_no":"621123198810046346"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"燕阳","unique_id_no":"210181195602181378"}</t>
+          <t>{"unique_name":"相凯","unique_id_no":"611022197403086588"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"堵浩","unique_id_no":"350926195008270546"}</t>
+          <t>{"unique_name":"孙利","unique_id_no":"61048119950517129X"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"空荣","unique_id_no":"130404196308035642"}</t>
+          <t>{"unique_name":"庞华","unique_id_no":"621002193810199131"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"邬宁","unique_id_no":"371203199312116383"}</t>
+          <t>{"unique_name":"晁桂珍","unique_id_no":"220102195706161618"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"毕军","unique_id_no":"230422194403059527"}</t>
+          <t>{"unique_name":"弓浩","unique_id_no":"430723199205130727"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"查玉兰","unique_id_no":"210401196408191205"}</t>
+          <t>{"unique_name":"栾畅","unique_id_no":"530823196205297231"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"谭飞","unique_id_no":"150121197711295864"}</t>
+          <t>{"unique_name":"鲜璐","unique_id_no":"330700197707118210"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"闵雷","unique_id_no":"469030198803222327"}</t>
+          <t>{"unique_name":"跋小红","unique_id_no":"510403199111176431"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"卢凯","unique_id_no":"13043419740222803X"}</t>
+          <t>{"unique_name":"钦鑫","unique_id_no":"500237194011219076"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"许玉英","unique_id_no":"320105195703053171"}</t>
+          <t>{"unique_name":"晏兰英","unique_id_no":"410401199702205023"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"方春梅","unique_id_no":"430501200104050505"}</t>
+          <t>{"unique_name":"容霞","unique_id_no":"420115193606086964"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"申敏","unique_id_no":"652201194209194992"}</t>
+          <t>{"unique_name":"郝杰","unique_id_no":"511133194903061528"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"端婷婷","unique_id_no":"120116196909189978"}</t>
+          <t>{"unique_name":"东桂芝","unique_id_no":"440200195410130306"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"戎玲","unique_id_no":"610921198112086197"}</t>
+          <t>{"unique_name":"漆欢","unique_id_no":"371323198609248906"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"益帅","unique_id_no":"522635197801251933"}</t>
+          <t>{"unique_name":"驷秀云","unique_id_no":"331002192912054095"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"项丽丽","unique_id_no":"532929199301157617"}</t>
+          <t>{"unique_name":"西春梅","unique_id_no":"65900319510714329X"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"谭峰","unique_id_no":"630121194311053744"}</t>
+          <t>{"unique_name":"赫小红","unique_id_no":"610402193009296672"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"满平","unique_id_no":"360983193508093646"}</t>
+          <t>{"unique_name":"谷鹏","unique_id_no":"230902193303245573"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"单想","unique_id_no":"450721197911155616"}</t>
+          <t>{"unique_name":"葛佳","unique_id_no":"51320019301110636X"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"伏晶","unique_id_no":"310107195802014478"}</t>
+          <t>{"unique_name":"翟玉珍","unique_id_no":"21110319500804054X"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"董想","unique_id_no":"61100119361124259X"}</t>
+          <t>{"unique_name":"吕亮","unique_id_no":"45102519750714290X"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"家云","unique_id_no":"310106196012145770"}</t>
+          <t>{"unique_name":"敖亮","unique_id_no":"360734194310185330"}</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"unique_name":"娄健","unique_id_no":"210113196906026236"}</t>
+          <t>{"unique_name":"伏桂芝","unique_id_no":"411500197312223411"}</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"unique_name":"龚芳","unique_id_no":"140830194605274743"}</t>
+          <t>{"unique_name":"别林","unique_id_no":"511422198705249648"}</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"unique_name":"殳帆","unique_id_no":"150621199504250117"}</t>
+          <t>{"unique_name":"郗洁","unique_id_no":"430611193807086227"}</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"unique_name":"程浩","unique_id_no":"370687193808290968"}</t>
+          <t>{"unique_name":"公海燕","unique_id_no":"341322199302088445"}</t>
         </is>
       </c>
     </row>
